--- a/SCH-STH/Baseline Mapping/Botwana/1. BOTSWANA SCH STH Mid Term Evaluation - School Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/1. BOTSWANA SCH STH Mid Term Evaluation - School Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 01.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="498"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="270">
   <si>
     <t>form_title</t>
   </si>
@@ -115,15 +115,9 @@
     <t>end</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 91</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>2 digit code assigned to you</t>
-  </si>
-  <si>
     <t>select_one provinces</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>w_school_id</t>
   </si>
   <si>
-    <t>3 digit code assigned to each school</t>
-  </si>
-  <si>
     <t>w_gps</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Works best outside of buildings</t>
   </si>
   <si>
-    <t>w_deworming</t>
-  </si>
-  <si>
     <t>Has this school received deworming treatment (Albendazole/Mebendazole) in the last six month?</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>district_list = ${w_district}</t>
   </si>
   <si>
-    <t>The code must be a three-digit number between 99 and 901</t>
-  </si>
-  <si>
     <t>yesNoDontKnow</t>
   </si>
   <si>
@@ -457,9 +442,6 @@
     <t>${w_toilet_type} = 'Other'</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}$')</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
@@ -487,9 +469,6 @@
     <t>Francistown</t>
   </si>
   <si>
-    <t>Gantsi</t>
-  </si>
-  <si>
     <t>Ghanzi</t>
   </si>
   <si>
@@ -502,9 +481,6 @@
     <t>Kgalagadi South</t>
   </si>
   <si>
-    <t>Klagadi North</t>
-  </si>
-  <si>
     <t>Kweneng West</t>
   </si>
   <si>
@@ -736,10 +712,133 @@
     <t>Select the district</t>
   </si>
   <si>
-    <t>1. BOTSWANA SCH/STH Mid Term Evaluation - School Form</t>
-  </si>
-  <si>
-    <t>bw_sch_sth_mid_term_evaluation_1_school</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>w_deworming_pzq</t>
+  </si>
+  <si>
+    <t>w_deworming_alb</t>
+  </si>
+  <si>
+    <t>Has this school received deworming treatment (Praziquantel) in the last six month?</t>
+  </si>
+  <si>
+    <t>District abbreviation</t>
+  </si>
+  <si>
+    <t>dist_abbr_list</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Date of survey</t>
+  </si>
+  <si>
+    <t>select_one dist_abbr_list</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 01 and 60</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2 digits code assigned to you</t>
+  </si>
+  <si>
+    <t>2 digits code assigned to each school</t>
+  </si>
+  <si>
+    <t>w_dist_abbr</t>
+  </si>
+  <si>
+    <t>1. BOTSWANA SCH/STH Mid Term Evaluation - School Form V2</t>
+  </si>
+  <si>
+    <t>bw_sch_sth_mid_term_evaluation_1_school_v2</t>
+  </si>
+  <si>
+    <t>202106_v2</t>
+  </si>
+  <si>
+    <t>. &gt; 9 and . &lt; 100</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 10 and 99</t>
   </si>
 </sst>
 </file>
@@ -851,7 +950,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,34 +1031,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -1242,19 +1328,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="24" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
     <col min="3" max="3" width="42.625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.25" style="24" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -1310,578 +1396,588 @@
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="10"/>
+        <v>250</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="12"/>
       <c r="J4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="11"/>
       <c r="H5" s="8"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
       <c r="J6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="L6" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L6" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>39</v>
+        <v>221</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="10" t="s">
-        <v>141</v>
-      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>116</v>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>34</v>
+      <c r="A21" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>67</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D21" s="26"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>34</v>
+      <c r="A22" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D22" s="26"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>134</v>
+      <c r="A23" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>25</v>
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="6"/>
@@ -1893,6 +1989,46 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1901,11 +2037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:F186"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1913,9 +2049,10 @@
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="27" customWidth="1"/>
     <col min="3" max="3" width="40" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1926,18 +2063,21 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
@@ -1947,10 +2087,11 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>23</v>
@@ -1960,10 +2101,11 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>22</v>
@@ -1973,10 +2115,11 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>23</v>
@@ -1986,270 +2129,291 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>23</v>
@@ -2259,964 +2423,972 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="31"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>146</v>
+      <c r="A77" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>146</v>
+      <c r="A78" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>146</v>
+      <c r="A79" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>146</v>
+      <c r="A80" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" t="s">
-        <v>162</v>
-      </c>
+      <c r="A81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" t="s">
         <v>146</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" t="s">
         <v>146</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E84" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
         <v>146</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
         <v>146</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E96" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" t="s">
         <v>146</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E98" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E99" t="s">
         <v>157</v>
@@ -3224,1206 +3396,1430 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E105" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E110" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" t="s">
         <v>146</v>
       </c>
-      <c r="B118" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>146</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="E121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>146</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E136" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E138" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E139" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E140" t="s">
         <v>146</v>
       </c>
-      <c r="B125" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>228</v>
-      </c>
-      <c r="B127" s="27">
-        <v>101</v>
-      </c>
-      <c r="C127" s="27">
-        <v>101</v>
-      </c>
-      <c r="F127" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>220</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B152" s="27">
+        <v>10</v>
+      </c>
+      <c r="C152" s="27">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="27">
+        <v>11</v>
+      </c>
+      <c r="C153" s="27">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="27">
+        <v>12</v>
+      </c>
+      <c r="C154" s="27">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>220</v>
+      </c>
+      <c r="B155" s="27">
+        <v>13</v>
+      </c>
+      <c r="C155" s="27">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="27">
+        <v>14</v>
+      </c>
+      <c r="C156" s="27">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" s="27">
+        <v>15</v>
+      </c>
+      <c r="C157" s="27">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158" s="27">
+        <v>16</v>
+      </c>
+      <c r="C158" s="27">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159" s="27">
+        <v>17</v>
+      </c>
+      <c r="C159" s="27">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" s="27">
+        <v>18</v>
+      </c>
+      <c r="C160" s="27">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" s="27">
+        <v>19</v>
+      </c>
+      <c r="C161" s="27">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162" s="27">
+        <v>20</v>
+      </c>
+      <c r="C162" s="27">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>220</v>
+      </c>
+      <c r="B163" s="27">
+        <v>21</v>
+      </c>
+      <c r="C163" s="27">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>220</v>
+      </c>
+      <c r="B164" s="27">
+        <v>22</v>
+      </c>
+      <c r="C164" s="27">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="27">
+        <v>23</v>
+      </c>
+      <c r="C165" s="27">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166" s="27">
+        <v>24</v>
+      </c>
+      <c r="C166" s="27">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>220</v>
+      </c>
+      <c r="B167" s="27">
+        <v>25</v>
+      </c>
+      <c r="C167" s="27">
+        <v>25</v>
+      </c>
+      <c r="G167" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168" s="27">
+        <v>26</v>
+      </c>
+      <c r="C168" s="27">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="27">
+        <v>27</v>
+      </c>
+      <c r="C169" s="27">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="27">
+        <v>28</v>
+      </c>
+      <c r="C170" s="27">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" s="27">
-        <v>102</v>
-      </c>
-      <c r="C128" s="27">
-        <v>102</v>
-      </c>
-      <c r="F128" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>220</v>
+      </c>
+      <c r="B171" s="27">
+        <v>29</v>
+      </c>
+      <c r="C171" s="27">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="27">
+        <v>30</v>
+      </c>
+      <c r="C172" s="27">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" s="27">
+        <v>31</v>
+      </c>
+      <c r="C173" s="27">
+        <v>31</v>
+      </c>
+      <c r="G173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>220</v>
+      </c>
+      <c r="B174" s="27">
+        <v>32</v>
+      </c>
+      <c r="C174" s="27">
+        <v>32</v>
+      </c>
+      <c r="G174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" s="27">
+        <v>33</v>
+      </c>
+      <c r="C175" s="27">
+        <v>33</v>
+      </c>
+      <c r="G175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="27">
+        <v>34</v>
+      </c>
+      <c r="C176" s="27">
+        <v>34</v>
+      </c>
+      <c r="G176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" s="27">
+        <v>35</v>
+      </c>
+      <c r="C177" s="27">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" s="27">
+        <v>36</v>
+      </c>
+      <c r="C178" s="27">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179" s="27">
+        <v>37</v>
+      </c>
+      <c r="C179" s="27">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>220</v>
+      </c>
+      <c r="B180" s="27">
+        <v>38</v>
+      </c>
+      <c r="C180" s="27">
+        <v>38</v>
+      </c>
+      <c r="G180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181" s="27">
+        <v>39</v>
+      </c>
+      <c r="C181" s="27">
+        <v>39</v>
+      </c>
+      <c r="G181" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>220</v>
+      </c>
+      <c r="B182" s="27">
+        <v>40</v>
+      </c>
+      <c r="C182" s="27">
+        <v>40</v>
+      </c>
+      <c r="G182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183" s="27">
+        <v>41</v>
+      </c>
+      <c r="C183" s="27">
+        <v>41</v>
+      </c>
+      <c r="G183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="27">
+        <v>42</v>
+      </c>
+      <c r="C184" s="27">
+        <v>42</v>
+      </c>
+      <c r="G184" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="27">
+        <v>43</v>
+      </c>
+      <c r="C185" s="27">
+        <v>43</v>
+      </c>
+      <c r="G185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" s="27">
+        <v>44</v>
+      </c>
+      <c r="C186" s="27">
+        <v>44</v>
+      </c>
+      <c r="G186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="27">
+        <v>45</v>
+      </c>
+      <c r="C187" s="27">
+        <v>45</v>
+      </c>
+      <c r="G187" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" s="27">
+        <v>46</v>
+      </c>
+      <c r="C188" s="27">
+        <v>46</v>
+      </c>
+      <c r="G188" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" s="27">
-        <v>103</v>
-      </c>
-      <c r="C129" s="27">
-        <v>103</v>
-      </c>
-      <c r="F129" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" s="27">
-        <v>104</v>
-      </c>
-      <c r="C130" s="27">
-        <v>104</v>
-      </c>
-      <c r="F130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>228</v>
-      </c>
-      <c r="B131" s="27">
-        <v>105</v>
-      </c>
-      <c r="C131" s="27">
-        <v>105</v>
-      </c>
-      <c r="F131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>228</v>
-      </c>
-      <c r="B132" s="27">
-        <v>106</v>
-      </c>
-      <c r="C132" s="27">
-        <v>106</v>
-      </c>
-      <c r="F132" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>228</v>
-      </c>
-      <c r="B133" s="27">
-        <v>107</v>
-      </c>
-      <c r="C133" s="27">
-        <v>107</v>
-      </c>
-      <c r="F133" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="27">
+        <v>47</v>
+      </c>
+      <c r="C189" s="27">
+        <v>47</v>
+      </c>
+      <c r="G189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="27">
+        <v>48</v>
+      </c>
+      <c r="C190" s="27">
+        <v>48</v>
+      </c>
+      <c r="G190" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="27">
+        <v>49</v>
+      </c>
+      <c r="C191" s="27">
+        <v>49</v>
+      </c>
+      <c r="G191" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" s="27">
-        <v>108</v>
-      </c>
-      <c r="C134" s="27">
-        <v>108</v>
-      </c>
-      <c r="F134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>228</v>
-      </c>
-      <c r="B135" s="27">
-        <v>109</v>
-      </c>
-      <c r="C135" s="27">
-        <v>109</v>
-      </c>
-      <c r="F135" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>228</v>
-      </c>
-      <c r="B136" s="27">
-        <v>110</v>
-      </c>
-      <c r="C136" s="27">
-        <v>110</v>
-      </c>
-      <c r="F136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>228</v>
-      </c>
-      <c r="B137" s="27">
-        <v>111</v>
-      </c>
-      <c r="C137" s="27">
-        <v>111</v>
-      </c>
-      <c r="F137" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>228</v>
-      </c>
-      <c r="B138" s="27">
-        <v>112</v>
-      </c>
-      <c r="C138" s="27">
-        <v>112</v>
-      </c>
-      <c r="F138" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="27">
+        <v>50</v>
+      </c>
+      <c r="C192" s="27">
+        <v>50</v>
+      </c>
+      <c r="G192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="27">
+        <v>51</v>
+      </c>
+      <c r="C193" s="27">
+        <v>51</v>
+      </c>
+      <c r="G193" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="27">
+        <v>52</v>
+      </c>
+      <c r="C194" s="27">
+        <v>52</v>
+      </c>
+      <c r="G194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="27">
+        <v>53</v>
+      </c>
+      <c r="C195" s="27">
+        <v>53</v>
+      </c>
+      <c r="G195" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="27">
+        <v>54</v>
+      </c>
+      <c r="C196" s="27">
+        <v>54</v>
+      </c>
+      <c r="G196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="27">
+        <v>55</v>
+      </c>
+      <c r="C197" s="27">
+        <v>55</v>
+      </c>
+      <c r="G197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="27">
+        <v>56</v>
+      </c>
+      <c r="C198" s="27">
+        <v>56</v>
+      </c>
+      <c r="G198" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>228</v>
-      </c>
-      <c r="B139" s="27">
-        <v>113</v>
-      </c>
-      <c r="C139" s="27">
-        <v>113</v>
-      </c>
-      <c r="F139" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>228</v>
-      </c>
-      <c r="B140" s="27">
-        <v>114</v>
-      </c>
-      <c r="C140" s="27">
-        <v>114</v>
-      </c>
-      <c r="F140" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="27">
+        <v>57</v>
+      </c>
+      <c r="C199" s="27">
+        <v>57</v>
+      </c>
+      <c r="G199" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="27">
+        <v>58</v>
+      </c>
+      <c r="C200" s="27">
+        <v>58</v>
+      </c>
+      <c r="G200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="27">
+        <v>59</v>
+      </c>
+      <c r="C201" s="27">
+        <v>59</v>
+      </c>
+      <c r="G201" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="27">
+        <v>60</v>
+      </c>
+      <c r="C202" s="27">
+        <v>60</v>
+      </c>
+      <c r="G202" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>228</v>
-      </c>
-      <c r="B141" s="27">
-        <v>115</v>
-      </c>
-      <c r="C141" s="27">
-        <v>115</v>
-      </c>
-      <c r="F141" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>228</v>
-      </c>
-      <c r="B142" s="27">
-        <v>116</v>
-      </c>
-      <c r="C142" s="27">
-        <v>116</v>
-      </c>
-      <c r="F142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>228</v>
-      </c>
-      <c r="B143" s="27">
-        <v>117</v>
-      </c>
-      <c r="C143" s="27">
-        <v>117</v>
-      </c>
-      <c r="F143" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>228</v>
-      </c>
-      <c r="B144" s="27">
-        <v>118</v>
-      </c>
-      <c r="C144" s="27">
-        <v>118</v>
-      </c>
-      <c r="F144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>228</v>
-      </c>
-      <c r="B145" s="27">
-        <v>119</v>
-      </c>
-      <c r="C145" s="27">
-        <v>119</v>
-      </c>
-      <c r="F145" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>228</v>
-      </c>
-      <c r="B146" s="27">
-        <v>120</v>
-      </c>
-      <c r="C146" s="27">
-        <v>120</v>
-      </c>
-      <c r="F146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>228</v>
-      </c>
-      <c r="B147" s="27">
-        <v>121</v>
-      </c>
-      <c r="C147" s="27">
-        <v>121</v>
-      </c>
-      <c r="F147" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>228</v>
-      </c>
-      <c r="B148" s="27">
-        <v>122</v>
-      </c>
-      <c r="C148" s="27">
-        <v>122</v>
-      </c>
-      <c r="F148" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>228</v>
-      </c>
-      <c r="B149" s="27">
-        <v>123</v>
-      </c>
-      <c r="C149" s="27">
-        <v>123</v>
-      </c>
-      <c r="F149" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>228</v>
-      </c>
-      <c r="B150" s="27">
-        <v>124</v>
-      </c>
-      <c r="C150" s="27">
-        <v>124</v>
-      </c>
-      <c r="F150" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151" s="27">
-        <v>125</v>
-      </c>
-      <c r="C151" s="27">
-        <v>125</v>
-      </c>
-      <c r="F151" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>228</v>
-      </c>
-      <c r="B152" s="27">
-        <v>126</v>
-      </c>
-      <c r="C152" s="27">
-        <v>126</v>
-      </c>
-      <c r="F152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>228</v>
-      </c>
-      <c r="B153" s="27">
-        <v>127</v>
-      </c>
-      <c r="C153" s="27">
-        <v>127</v>
-      </c>
-      <c r="F153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>228</v>
-      </c>
-      <c r="B154" s="27">
-        <v>128</v>
-      </c>
-      <c r="C154" s="27">
-        <v>128</v>
-      </c>
-      <c r="F154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>228</v>
-      </c>
-      <c r="B155" s="27">
-        <v>129</v>
-      </c>
-      <c r="C155" s="27">
-        <v>129</v>
-      </c>
-      <c r="F155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>228</v>
-      </c>
-      <c r="B156" s="27">
-        <v>130</v>
-      </c>
-      <c r="C156" s="27">
-        <v>130</v>
-      </c>
-      <c r="F156" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>228</v>
-      </c>
-      <c r="B157" s="27">
-        <v>131</v>
-      </c>
-      <c r="C157" s="27">
-        <v>131</v>
-      </c>
-      <c r="F157" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>228</v>
-      </c>
-      <c r="B158" s="27">
-        <v>132</v>
-      </c>
-      <c r="C158" s="27">
-        <v>132</v>
-      </c>
-      <c r="F158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>228</v>
-      </c>
-      <c r="B159" s="27">
-        <v>133</v>
-      </c>
-      <c r="C159" s="27">
-        <v>133</v>
-      </c>
-      <c r="F159" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>228</v>
-      </c>
-      <c r="B160" s="27">
-        <v>134</v>
-      </c>
-      <c r="C160" s="27">
-        <v>134</v>
-      </c>
-      <c r="F160" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>228</v>
-      </c>
-      <c r="B161" s="27">
-        <v>135</v>
-      </c>
-      <c r="C161" s="27">
-        <v>135</v>
-      </c>
-      <c r="F161" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>228</v>
-      </c>
-      <c r="B162" s="27">
-        <v>136</v>
-      </c>
-      <c r="C162" s="27">
-        <v>136</v>
-      </c>
-      <c r="F162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>228</v>
-      </c>
-      <c r="B163" s="27">
-        <v>137</v>
-      </c>
-      <c r="C163" s="27">
-        <v>137</v>
-      </c>
-      <c r="F163" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>228</v>
-      </c>
-      <c r="B164" s="27">
-        <v>138</v>
-      </c>
-      <c r="C164" s="27">
-        <v>138</v>
-      </c>
-      <c r="F164" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>228</v>
-      </c>
-      <c r="B165" s="27">
-        <v>139</v>
-      </c>
-      <c r="C165" s="27">
-        <v>139</v>
-      </c>
-      <c r="F165" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>228</v>
-      </c>
-      <c r="B166" s="27">
-        <v>140</v>
-      </c>
-      <c r="C166" s="27">
-        <v>140</v>
-      </c>
-      <c r="F166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>228</v>
-      </c>
-      <c r="B167" s="27">
-        <v>141</v>
-      </c>
-      <c r="C167" s="27">
-        <v>141</v>
-      </c>
-      <c r="F167" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>228</v>
-      </c>
-      <c r="B168" s="27">
-        <v>142</v>
-      </c>
-      <c r="C168" s="27">
-        <v>142</v>
-      </c>
-      <c r="F168" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>228</v>
-      </c>
-      <c r="B169" s="27">
-        <v>143</v>
-      </c>
-      <c r="C169" s="27">
-        <v>143</v>
-      </c>
-      <c r="F169" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>228</v>
-      </c>
-      <c r="B170" s="27">
-        <v>144</v>
-      </c>
-      <c r="C170" s="27">
-        <v>144</v>
-      </c>
-      <c r="F170" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>228</v>
-      </c>
-      <c r="B171" s="27">
-        <v>145</v>
-      </c>
-      <c r="C171" s="27">
-        <v>145</v>
-      </c>
-      <c r="F171" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>228</v>
-      </c>
-      <c r="B172" s="27">
-        <v>146</v>
-      </c>
-      <c r="C172" s="27">
-        <v>146</v>
-      </c>
-      <c r="F172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>228</v>
-      </c>
-      <c r="B173" s="27">
-        <v>147</v>
-      </c>
-      <c r="C173" s="27">
-        <v>147</v>
-      </c>
-      <c r="F173" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>228</v>
-      </c>
-      <c r="B174" s="27">
-        <v>148</v>
-      </c>
-      <c r="C174" s="27">
-        <v>148</v>
-      </c>
-      <c r="F174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>228</v>
-      </c>
-      <c r="B175" s="27">
-        <v>149</v>
-      </c>
-      <c r="C175" s="27">
-        <v>149</v>
-      </c>
-      <c r="F175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>228</v>
-      </c>
-      <c r="B176" s="27">
-        <v>150</v>
-      </c>
-      <c r="C176" s="27">
-        <v>150</v>
-      </c>
-      <c r="F176" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>228</v>
-      </c>
-      <c r="B177" s="27">
-        <v>151</v>
-      </c>
-      <c r="C177" s="27">
-        <v>151</v>
-      </c>
-      <c r="F177" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>228</v>
-      </c>
-      <c r="B178" s="27">
-        <v>152</v>
-      </c>
-      <c r="C178" s="27">
-        <v>152</v>
-      </c>
-      <c r="F178" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>228</v>
-      </c>
-      <c r="B179" s="27">
-        <v>153</v>
-      </c>
-      <c r="C179" s="27">
-        <v>153</v>
-      </c>
-      <c r="F179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>228</v>
-      </c>
-      <c r="B180" s="27">
-        <v>154</v>
-      </c>
-      <c r="C180" s="27">
-        <v>154</v>
-      </c>
-      <c r="F180" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>228</v>
-      </c>
-      <c r="B181" s="27">
-        <v>155</v>
-      </c>
-      <c r="C181" s="27">
-        <v>155</v>
-      </c>
-      <c r="F181" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>228</v>
-      </c>
-      <c r="B182" s="27">
-        <v>156</v>
-      </c>
-      <c r="C182" s="27">
-        <v>156</v>
-      </c>
-      <c r="F182" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>228</v>
-      </c>
-      <c r="B183" s="27">
-        <v>157</v>
-      </c>
-      <c r="C183" s="27">
-        <v>157</v>
-      </c>
-      <c r="F183" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>228</v>
-      </c>
-      <c r="B184" s="27">
-        <v>158</v>
-      </c>
-      <c r="C184" s="27">
-        <v>158</v>
-      </c>
-      <c r="F184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B185" s="27">
-        <v>159</v>
-      </c>
-      <c r="C185" s="27">
-        <v>159</v>
-      </c>
-      <c r="F185" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>228</v>
-      </c>
-      <c r="B186" s="27">
-        <v>160</v>
-      </c>
-      <c r="C186" s="27">
-        <v>160</v>
-      </c>
-      <c r="F186" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4466,13 +4862,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2">
-        <v>202106</v>
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>

--- a/SCH-STH/Baseline Mapping/Botwana/1. BOTSWANA SCH STH Mid Term Evaluation - School Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/1. BOTSWANA SCH STH Mid Term Evaluation - School Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 01.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 09.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="498"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="498" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="282">
   <si>
     <t>form_title</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Mobile water tanker</t>
   </si>
   <si>
-    <t>select_one source_type</t>
-  </si>
-  <si>
     <t>select_one accessible_water</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t xml:space="preserve">Flush or pour flush toilet </t>
   </si>
   <si>
-    <t>Other(specify)</t>
-  </si>
-  <si>
     <t>toilet_type</t>
   </si>
   <si>
@@ -826,19 +820,61 @@
     <t>w_dist_abbr</t>
   </si>
   <si>
-    <t>1. BOTSWANA SCH/STH Mid Term Evaluation - School Form V2</t>
-  </si>
-  <si>
-    <t>bw_sch_sth_mid_term_evaluation_1_school_v2</t>
-  </si>
-  <si>
-    <t>202106_v2</t>
-  </si>
-  <si>
     <t>. &gt; 9 and . &lt; 100</t>
   </si>
   <si>
     <t>The code must be a two-digit number between 10 and 99</t>
+  </si>
+  <si>
+    <t>select_multiple source_type</t>
+  </si>
+  <si>
+    <t>1. BOTSWANA SCH/STH Mid Term Evaluation - School Form V2.1</t>
+  </si>
+  <si>
+    <t>bw_sch_sth_mid_term_evaluation_1_school_v2.1</t>
+  </si>
+  <si>
+    <t>202106_v2.1</t>
+  </si>
+  <si>
+    <t>Unprotected.spring</t>
+  </si>
+  <si>
+    <t>Protected.spring</t>
+  </si>
+  <si>
+    <t>Unprotected.dug.well</t>
+  </si>
+  <si>
+    <t>Protected.dug.well</t>
+  </si>
+  <si>
+    <t>Surface.water.(river,.creek,.dam,.lake,.stream,.canal)</t>
+  </si>
+  <si>
+    <t>Public.piped.water/tap/standpipe</t>
+  </si>
+  <si>
+    <t>Hand.pump/tube.well/borehole</t>
+  </si>
+  <si>
+    <t>Rain.water.collection</t>
+  </si>
+  <si>
+    <t>Plastic.bag.water</t>
+  </si>
+  <si>
+    <t>Bottle.water</t>
+  </si>
+  <si>
+    <t>In.school.piped.water/tap/standpipe</t>
+  </si>
+  <si>
+    <t>Mobile.water.tanker</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
   </si>
 </sst>
 </file>
@@ -1330,11 +1366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1402,14 +1438,14 @@
         <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1421,13 +1457,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -1447,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>34</v>
@@ -1471,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>34</v>
@@ -1491,13 +1527,13 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
@@ -1515,13 +1551,13 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1539,23 +1575,23 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1564,7 +1600,7 @@
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1632,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>41</v>
@@ -1618,10 +1654,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="14"/>
@@ -1660,7 +1696,7 @@
         <v>82</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>44</v>
@@ -1670,7 +1706,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="17"/>
       <c r="H13" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="8" t="s">
@@ -1679,9 +1715,9 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>45</v>
@@ -1694,7 +1730,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="17"/>
       <c r="H14" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="8" t="s">
@@ -1705,7 +1741,7 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>47</v>
@@ -1749,7 +1785,7 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>51</v>
@@ -1762,7 +1798,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="8" t="s">
@@ -1776,17 +1812,17 @@
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="17"/>
       <c r="H18" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="8" t="s">
@@ -1797,7 +1833,7 @@
     </row>
     <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>53</v>
@@ -1810,7 +1846,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="8" t="s">
@@ -1821,7 +1857,7 @@
     </row>
     <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>55</v>
@@ -1834,7 +1870,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="8" t="s">
@@ -1845,7 +1881,7 @@
     </row>
     <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>57</v>
@@ -1858,7 +1894,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="8" t="s">
@@ -1869,7 +1905,7 @@
     </row>
     <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>59</v>
@@ -1882,7 +1918,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="8" t="s">
@@ -1908,7 +1944,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="8" t="s">
@@ -1934,7 +1970,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
       <c r="H24" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="8" t="s">
@@ -1945,7 +1981,7 @@
     </row>
     <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>66</v>
@@ -1960,7 +1996,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="8" t="s">
@@ -2039,9 +2075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:G202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2069,10 +2105,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,10 +2225,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>83</v>
@@ -2203,10 +2239,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>84</v>
@@ -2217,10 +2253,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>85</v>
@@ -2231,10 +2267,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>86</v>
@@ -2245,10 +2281,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>87</v>
@@ -2259,10 +2295,10 @@
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>88</v>
@@ -2273,10 +2309,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>89</v>
@@ -2287,10 +2323,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>90</v>
@@ -2301,10 +2337,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>91</v>
@@ -2315,10 +2351,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>92</v>
+        <v>278</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>92</v>
@@ -2329,10 +2365,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>93</v>
@@ -2343,10 +2379,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>94</v>
@@ -2357,13 +2393,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2371,13 +2407,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2385,13 +2421,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2399,13 +2435,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2413,7 +2449,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>23</v>
@@ -2427,13 +2463,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2441,13 +2477,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2455,13 +2491,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2469,13 +2505,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2483,13 +2519,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2497,13 +2533,13 @@
     </row>
     <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2511,13 +2547,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2525,13 +2561,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2539,13 +2575,13 @@
     </row>
     <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2553,13 +2589,13 @@
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2567,13 +2603,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2581,13 +2617,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2595,13 +2631,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2609,13 +2645,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2623,13 +2659,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2640,10 +2676,10 @@
         <v>30</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,10 +2687,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,13 +2701,13 @@
         <v>20</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,13 +2715,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,13 +2729,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,13 +2757,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,13 +2771,13 @@
         <v>20</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,13 +2785,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,13 +2799,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,13 +2813,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,13 +2841,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,13 +2855,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,13 +2869,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2847,13 +2883,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2861,13 +2897,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2875,13 +2911,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,13 +2925,13 @@
         <v>20</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,240 +2939,240 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>234</v>
-      </c>
       <c r="C65" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,973 +3180,973 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E102" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E128" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E132" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E133" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E137" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G143" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G148" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G149" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G150" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G151" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B152" s="27">
         <v>10</v>
@@ -4119,12 +4155,12 @@
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B153" s="27">
         <v>11</v>
@@ -4133,12 +4169,12 @@
         <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B154" s="27">
         <v>12</v>
@@ -4147,12 +4183,12 @@
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B155" s="27">
         <v>13</v>
@@ -4161,12 +4197,12 @@
         <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B156" s="27">
         <v>14</v>
@@ -4175,12 +4211,12 @@
         <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B157" s="27">
         <v>15</v>
@@ -4189,12 +4225,12 @@
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B158" s="27">
         <v>16</v>
@@ -4203,12 +4239,12 @@
         <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B159" s="27">
         <v>17</v>
@@ -4217,12 +4253,12 @@
         <v>17</v>
       </c>
       <c r="G159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B160" s="27">
         <v>18</v>
@@ -4231,12 +4267,12 @@
         <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B161" s="27">
         <v>19</v>
@@ -4245,12 +4281,12 @@
         <v>19</v>
       </c>
       <c r="G161" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B162" s="27">
         <v>20</v>
@@ -4259,12 +4295,12 @@
         <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B163" s="27">
         <v>21</v>
@@ -4273,12 +4309,12 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B164" s="27">
         <v>22</v>
@@ -4287,12 +4323,12 @@
         <v>22</v>
       </c>
       <c r="G164" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B165" s="27">
         <v>23</v>
@@ -4301,12 +4337,12 @@
         <v>23</v>
       </c>
       <c r="G165" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B166" s="27">
         <v>24</v>
@@ -4315,12 +4351,12 @@
         <v>24</v>
       </c>
       <c r="G166" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B167" s="27">
         <v>25</v>
@@ -4329,12 +4365,12 @@
         <v>25</v>
       </c>
       <c r="G167" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B168" s="27">
         <v>26</v>
@@ -4343,12 +4379,12 @@
         <v>26</v>
       </c>
       <c r="G168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B169" s="27">
         <v>27</v>
@@ -4357,12 +4393,12 @@
         <v>27</v>
       </c>
       <c r="G169" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B170" s="27">
         <v>28</v>
@@ -4371,12 +4407,12 @@
         <v>28</v>
       </c>
       <c r="G170" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B171" s="27">
         <v>29</v>
@@ -4385,12 +4421,12 @@
         <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B172" s="27">
         <v>30</v>
@@ -4399,12 +4435,12 @@
         <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B173" s="27">
         <v>31</v>
@@ -4413,12 +4449,12 @@
         <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B174" s="27">
         <v>32</v>
@@ -4427,12 +4463,12 @@
         <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B175" s="27">
         <v>33</v>
@@ -4441,12 +4477,12 @@
         <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B176" s="27">
         <v>34</v>
@@ -4455,12 +4491,12 @@
         <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B177" s="27">
         <v>35</v>
@@ -4469,12 +4505,12 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B178" s="27">
         <v>36</v>
@@ -4483,12 +4519,12 @@
         <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B179" s="27">
         <v>37</v>
@@ -4497,12 +4533,12 @@
         <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B180" s="27">
         <v>38</v>
@@ -4511,12 +4547,12 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B181" s="27">
         <v>39</v>
@@ -4525,12 +4561,12 @@
         <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B182" s="27">
         <v>40</v>
@@ -4539,12 +4575,12 @@
         <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B183" s="27">
         <v>41</v>
@@ -4553,12 +4589,12 @@
         <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B184" s="27">
         <v>42</v>
@@ -4567,12 +4603,12 @@
         <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B185" s="27">
         <v>43</v>
@@ -4581,12 +4617,12 @@
         <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B186" s="27">
         <v>44</v>
@@ -4595,12 +4631,12 @@
         <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B187" s="27">
         <v>45</v>
@@ -4609,12 +4645,12 @@
         <v>45</v>
       </c>
       <c r="G187" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B188" s="27">
         <v>46</v>
@@ -4623,12 +4659,12 @@
         <v>46</v>
       </c>
       <c r="G188" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B189" s="27">
         <v>47</v>
@@ -4637,12 +4673,12 @@
         <v>47</v>
       </c>
       <c r="G189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B190" s="27">
         <v>48</v>
@@ -4651,12 +4687,12 @@
         <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B191" s="27">
         <v>49</v>
@@ -4665,12 +4701,12 @@
         <v>49</v>
       </c>
       <c r="G191" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B192" s="27">
         <v>50</v>
@@ -4679,12 +4715,12 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B193" s="27">
         <v>51</v>
@@ -4693,12 +4729,12 @@
         <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B194" s="27">
         <v>52</v>
@@ -4707,12 +4743,12 @@
         <v>52</v>
       </c>
       <c r="G194" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B195" s="27">
         <v>53</v>
@@ -4721,12 +4757,12 @@
         <v>53</v>
       </c>
       <c r="G195" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B196" s="27">
         <v>54</v>
@@ -4735,12 +4771,12 @@
         <v>54</v>
       </c>
       <c r="G196" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B197" s="27">
         <v>55</v>
@@ -4749,12 +4785,12 @@
         <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B198" s="27">
         <v>56</v>
@@ -4763,12 +4799,12 @@
         <v>56</v>
       </c>
       <c r="G198" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B199" s="27">
         <v>57</v>
@@ -4777,12 +4813,12 @@
         <v>57</v>
       </c>
       <c r="G199" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B200" s="27">
         <v>58</v>
@@ -4791,12 +4827,12 @@
         <v>58</v>
       </c>
       <c r="G200" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B201" s="27">
         <v>59</v>
@@ -4805,12 +4841,12 @@
         <v>59</v>
       </c>
       <c r="G201" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B202" s="27">
         <v>60</v>
@@ -4819,7 +4855,7 @@
         <v>60</v>
       </c>
       <c r="G202" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4872,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4862,13 +4898,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
